--- a/手工艺品文档.xlsx
+++ b/手工艺品文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>三钛合金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,86 @@
   </si>
   <si>
     <t>损伤控制 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋者级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见卫星矿石采集晶体 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿无人机 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心探针发射器 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心扫描探针 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容通量线圈 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反应堆控制元件 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特里斯坦级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩充货柜舱 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄蜂 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地精灵 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型牵引光束 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾回充器 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾通量线圈 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采矿激光器提升器 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准晶体 M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的安全货柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回转稳定器 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型辅助装甲维修器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -831,19 +911,19 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>20880</v>
-      </c>
-      <c r="E15">
-        <v>1080</v>
+        <v>85590</v>
+      </c>
+      <c r="C15">
+        <v>630</v>
+      </c>
+      <c r="D15">
+        <v>630</v>
       </c>
       <c r="F15">
-        <v>2970</v>
-      </c>
-      <c r="H15">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -851,47 +931,38 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B16">
-        <v>19999998</v>
+        <v>48420</v>
       </c>
       <c r="C16">
-        <v>6000003</v>
-      </c>
-      <c r="D16">
-        <v>6000003</v>
+        <v>6210</v>
       </c>
       <c r="E16">
-        <v>399996</v>
+        <v>360</v>
       </c>
       <c r="F16">
-        <v>399996</v>
-      </c>
-      <c r="G16">
-        <v>19998</v>
-      </c>
-      <c r="H16">
-        <v>5994</v>
+        <v>180</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>68670</v>
+        <v>45810</v>
       </c>
       <c r="C17">
-        <v>28890</v>
-      </c>
-      <c r="D17">
-        <v>37080</v>
-      </c>
-      <c r="H17">
+        <v>630</v>
+      </c>
+      <c r="E17">
+        <v>360</v>
+      </c>
+      <c r="F17">
         <v>180</v>
       </c>
       <c r="I17">
@@ -900,19 +971,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>726390</v>
-      </c>
-      <c r="C18">
-        <v>673920</v>
-      </c>
-      <c r="D18">
-        <v>19710</v>
+        <v>20880</v>
       </c>
       <c r="E18">
-        <v>180</v>
+        <v>1080</v>
+      </c>
+      <c r="F18">
+        <v>2970</v>
+      </c>
+      <c r="H18">
+        <v>720</v>
       </c>
       <c r="I18">
         <v>100</v>
@@ -920,19 +991,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>541170</v>
-      </c>
-      <c r="C19">
-        <v>406260</v>
-      </c>
-      <c r="D19">
-        <v>145080</v>
-      </c>
-      <c r="G19">
-        <v>180</v>
+        <v>6930</v>
+      </c>
+      <c r="E19">
+        <v>360</v>
+      </c>
+      <c r="F19">
+        <v>1170</v>
       </c>
       <c r="H19">
         <v>180</v>
@@ -943,22 +1011,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>2106180</v>
+        <v>2500020</v>
       </c>
       <c r="C20">
-        <v>1379970</v>
+        <v>1099980</v>
       </c>
       <c r="D20">
-        <v>602910</v>
+        <v>900000</v>
+      </c>
+      <c r="E20">
+        <v>250020</v>
       </c>
       <c r="F20">
-        <v>135630</v>
+        <v>35010</v>
+      </c>
+      <c r="G20">
+        <v>14760</v>
       </c>
       <c r="H20">
-        <v>43380</v>
+        <v>7920</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -966,42 +1040,39 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>39450303</v>
+        <v>68670</v>
       </c>
       <c r="C21">
-        <v>9841554</v>
+        <v>28890</v>
       </c>
       <c r="D21">
-        <v>2377611</v>
-      </c>
-      <c r="E21">
-        <v>704241</v>
-      </c>
-      <c r="G21">
-        <v>85446</v>
+        <v>37080</v>
       </c>
       <c r="H21">
-        <v>33246</v>
+        <v>180</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B22">
-        <v>50940</v>
+        <v>45630</v>
       </c>
       <c r="C22">
-        <v>45360</v>
+        <v>4590</v>
       </c>
       <c r="D22">
-        <v>16740</v>
+        <v>6570</v>
+      </c>
+      <c r="E22">
+        <v>630</v>
       </c>
       <c r="I22">
         <v>100</v>
@@ -1009,19 +1080,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>170100</v>
+        <v>726390</v>
       </c>
       <c r="C23">
-        <v>41040</v>
+        <v>673920</v>
       </c>
       <c r="D23">
-        <v>16110</v>
+        <v>19710</v>
       </c>
       <c r="E23">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -1029,19 +1100,437 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>541170</v>
+      </c>
+      <c r="C24">
+        <v>406260</v>
+      </c>
+      <c r="D24">
+        <v>145080</v>
+      </c>
+      <c r="G24">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>180</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>46400</v>
+      </c>
+      <c r="C25">
+        <v>6030</v>
+      </c>
+      <c r="D25">
+        <v>180</v>
+      </c>
+      <c r="E25">
+        <v>6570</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>2106180</v>
+      </c>
+      <c r="C26">
+        <v>1379970</v>
+      </c>
+      <c r="D26">
+        <v>602910</v>
+      </c>
+      <c r="F26">
+        <v>135630</v>
+      </c>
+      <c r="H26">
+        <v>43380</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>50940</v>
+      </c>
+      <c r="C27">
+        <v>45360</v>
+      </c>
+      <c r="D27">
+        <v>16740</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>170100</v>
+      </c>
+      <c r="C28">
+        <v>41040</v>
+      </c>
+      <c r="D28">
+        <v>16110</v>
+      </c>
+      <c r="E28">
+        <v>540</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>95580</v>
       </c>
-      <c r="C24">
+      <c r="C29">
         <v>180</v>
       </c>
-      <c r="D24">
+      <c r="D29">
         <v>4770</v>
       </c>
-      <c r="I24">
-        <v>100</v>
+      <c r="I29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>19999998</v>
+      </c>
+      <c r="C30">
+        <v>6000003</v>
+      </c>
+      <c r="D30">
+        <v>600003</v>
+      </c>
+      <c r="E30">
+        <v>399996</v>
+      </c>
+      <c r="F30">
+        <v>39996</v>
+      </c>
+      <c r="G30">
+        <v>19998</v>
+      </c>
+      <c r="H30">
+        <v>5994</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>10200001</v>
+      </c>
+      <c r="C31">
+        <v>3060002</v>
+      </c>
+      <c r="D31">
+        <v>306002</v>
+      </c>
+      <c r="E31">
+        <v>204002</v>
+      </c>
+      <c r="F31">
+        <v>20402</v>
+      </c>
+      <c r="G31">
+        <v>10196</v>
+      </c>
+      <c r="H31">
+        <v>3057</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>39450303</v>
+      </c>
+      <c r="C32">
+        <v>9841554</v>
+      </c>
+      <c r="D32">
+        <v>2377611</v>
+      </c>
+      <c r="E32">
+        <v>704241</v>
+      </c>
+      <c r="G32">
+        <v>85446</v>
+      </c>
+      <c r="H32">
+        <v>33246</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>419994</v>
+      </c>
+      <c r="C33">
+        <v>113994</v>
+      </c>
+      <c r="D33">
+        <v>54000</v>
+      </c>
+      <c r="E33">
+        <v>5994</v>
+      </c>
+      <c r="F33">
+        <v>1404</v>
+      </c>
+      <c r="G33">
+        <v>396</v>
+      </c>
+      <c r="H33">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>445</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>42390</v>
+      </c>
+      <c r="C35">
+        <v>64440</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>990</v>
+      </c>
+      <c r="C36">
+        <v>1080</v>
+      </c>
+      <c r="D36">
+        <v>2520</v>
+      </c>
+      <c r="E36">
+        <v>990</v>
+      </c>
+      <c r="F36">
+        <v>360</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37">
+        <v>900</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>41220</v>
+      </c>
+      <c r="C38">
+        <v>54900</v>
+      </c>
+      <c r="D38">
+        <v>4590</v>
+      </c>
+      <c r="E38">
+        <v>360</v>
+      </c>
+      <c r="F38">
+        <v>270</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39">
+        <v>20790</v>
+      </c>
+      <c r="C39">
+        <v>27630</v>
+      </c>
+      <c r="D39">
+        <v>1620</v>
+      </c>
+      <c r="E39">
+        <v>810</v>
+      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40">
+        <v>60840</v>
+      </c>
+      <c r="C40">
+        <v>28620</v>
+      </c>
+      <c r="E40">
+        <v>180</v>
+      </c>
+      <c r="G40">
+        <v>540</v>
+      </c>
+      <c r="H40">
+        <v>180</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41">
+        <v>69570</v>
+      </c>
+      <c r="C41">
+        <v>44190</v>
+      </c>
+      <c r="D41">
+        <v>46620</v>
+      </c>
+      <c r="E41">
+        <v>270</v>
+      </c>
+      <c r="G41">
+        <v>360</v>
+      </c>
+      <c r="I41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>720</v>
+      </c>
+      <c r="D42">
+        <v>5940</v>
+      </c>
+      <c r="E42">
+        <v>4860</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>3200040</v>
+      </c>
+      <c r="G43">
+        <v>6480</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>21450</v>
+      </c>
+      <c r="C44">
+        <v>7200</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
